--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H2">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I2">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J2">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N2">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q2">
-        <v>168.9141681332513</v>
+        <v>1.22548661337</v>
       </c>
       <c r="R2">
-        <v>1520.227513199262</v>
+        <v>11.02937952033</v>
       </c>
       <c r="S2">
-        <v>0.02412451884247334</v>
+        <v>0.001196047253955894</v>
       </c>
       <c r="T2">
-        <v>0.02412451884247335</v>
+        <v>0.001196047253955895</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H3">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I3">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J3">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q3">
-        <v>20.679289017768</v>
+        <v>5.23729304838</v>
       </c>
       <c r="R3">
-        <v>186.113601159912</v>
+        <v>47.13563743542</v>
       </c>
       <c r="S3">
-        <v>0.002953440218019759</v>
+        <v>0.005111479717800839</v>
       </c>
       <c r="T3">
-        <v>0.00295344021801976</v>
+        <v>0.00511147971780084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H4">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I4">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J4">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N4">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q4">
-        <v>52.79711957254735</v>
+        <v>2.389364810813889</v>
       </c>
       <c r="R4">
-        <v>475.174076152926</v>
+        <v>21.504283297325</v>
       </c>
       <c r="S4">
-        <v>0.007540546302495172</v>
+        <v>0.00233196608554872</v>
       </c>
       <c r="T4">
-        <v>0.007540546302495174</v>
+        <v>0.00233196608554872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>45.968478</v>
       </c>
       <c r="I5">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J5">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N5">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O5">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P5">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q5">
-        <v>4005.083370413678</v>
+        <v>114.731529059772</v>
       </c>
       <c r="R5">
-        <v>36045.7503337231</v>
+        <v>1032.583761537948</v>
       </c>
       <c r="S5">
-        <v>0.5720106862735174</v>
+        <v>0.1119753808625817</v>
       </c>
       <c r="T5">
-        <v>0.5720106862735176</v>
+        <v>0.1119753808625817</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.968478</v>
       </c>
       <c r="I6">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J6">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P6">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q6">
         <v>490.321667343528</v>
       </c>
       <c r="R6">
-        <v>4412.895006091751</v>
+        <v>4412.895006091752</v>
       </c>
       <c r="S6">
-        <v>0.07002831339388013</v>
+        <v>0.4785428721808823</v>
       </c>
       <c r="T6">
-        <v>0.07002831339388015</v>
+        <v>0.4785428721808823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.968478</v>
       </c>
       <c r="I7">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J7">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N7">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O7">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P7">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q7">
-        <v>1251.859852507694</v>
+        <v>223.6952042033633</v>
       </c>
       <c r="R7">
-        <v>11266.73867256924</v>
+        <v>2013.25683783027</v>
       </c>
       <c r="S7">
-        <v>0.1787920867368182</v>
+        <v>0.218321466584439</v>
       </c>
       <c r="T7">
-        <v>0.1787920867368182</v>
+        <v>0.218321466584439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H8">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N8">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O8">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P8">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q8">
-        <v>705.305203212764</v>
+        <v>25.890035449116</v>
       </c>
       <c r="R8">
-        <v>6347.746828914876</v>
+        <v>233.010319042044</v>
       </c>
       <c r="S8">
-        <v>0.1007325131612291</v>
+        <v>0.02526808980685843</v>
       </c>
       <c r="T8">
-        <v>0.1007325131612292</v>
+        <v>0.02526808980685843</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H9">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P9">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q9">
-        <v>86.34687252206399</v>
+        <v>110.644784855784</v>
       </c>
       <c r="R9">
-        <v>777.121852698576</v>
+        <v>995.803063702056</v>
       </c>
       <c r="S9">
-        <v>0.01233216121636344</v>
+        <v>0.107986810828872</v>
       </c>
       <c r="T9">
-        <v>0.01233216121636345</v>
+        <v>0.107986810828872</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H10">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N10">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O10">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P10">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q10">
-        <v>220.455652481372</v>
+        <v>50.47851113014556</v>
       </c>
       <c r="R10">
-        <v>1984.100872332348</v>
+        <v>454.30660017131</v>
       </c>
       <c r="S10">
-        <v>0.03148573385520329</v>
+        <v>0.04926588667906099</v>
       </c>
       <c r="T10">
-        <v>0.03148573385520331</v>
+        <v>0.04926588667906099</v>
       </c>
     </row>
   </sheetData>
